--- a/data/vintage_data/data_20200211.xlsx
+++ b/data/vintage_data/data_20200211.xlsx
@@ -15705,9 +15705,7 @@
       <c r="V101" t="n">
         <v>1.63214344470654</v>
       </c>
-      <c r="W101" t="n">
-        <v>3.557</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23396,16 +23394,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-48.36923996534828</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -31102,7 +31100,9 @@
       <c r="O101" t="n">
         <v>986.7850670182675</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-48.36923996534828</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -31113,9 +31113,7 @@
       <c r="V101" t="n">
         <v>1.63214344470654</v>
       </c>
-      <c r="W101" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20200211.xlsx
+++ b/data/vintage_data/data_20200211.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -556,9 +566,15 @@
         <v>-2.624678796331396</v>
       </c>
       <c r="W2" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.442462199390804</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3252334025838594</v>
       </c>
     </row>
@@ -632,9 +648,15 @@
         <v>4.04591287651782</v>
       </c>
       <c r="W3" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.576883913617963</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0920855831540509</v>
       </c>
     </row>
@@ -708,9 +730,15 @@
         <v>2.496809167036679</v>
       </c>
       <c r="W4" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9124234820257633</v>
+      </c>
+      <c r="Y4" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.352701556438597</v>
       </c>
     </row>
@@ -784,9 +812,15 @@
         <v>2.967672927588798</v>
       </c>
       <c r="W5" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.743220811679411</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.6316334282191225</v>
       </c>
     </row>
@@ -860,9 +894,15 @@
         <v>4.723561340933954</v>
       </c>
       <c r="W6" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.567000009466767</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5002696696877098</v>
       </c>
     </row>
@@ -936,9 +976,15 @@
         <v>0.8036266885600564</v>
       </c>
       <c r="W7" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.652432896110348</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2909016793391079</v>
       </c>
     </row>
@@ -1012,9 +1058,15 @@
         <v>-0.6910721451132128</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.403017477151703</v>
+      </c>
+      <c r="Y8" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1515404710328598</v>
       </c>
     </row>
@@ -1088,9 +1140,15 @@
         <v>0.9772275274890597</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.189601033430708</v>
+      </c>
+      <c r="Y9" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.682825505453847</v>
       </c>
     </row>
@@ -1164,9 +1222,15 @@
         <v>1.875776898790819</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.426762081980713</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.4148682118999314</v>
       </c>
     </row>
@@ -1240,9 +1304,15 @@
         <v>1.777134715082598</v>
       </c>
       <c r="W11" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.315623914253159</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.7127871952926002</v>
       </c>
     </row>
@@ -1316,9 +1386,15 @@
         <v>1.77903126145105</v>
       </c>
       <c r="W12" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.996656064319257</v>
+      </c>
+      <c r="Y12" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.44156517173449</v>
       </c>
     </row>
@@ -1392,9 +1468,15 @@
         <v>2.329595486325178</v>
       </c>
       <c r="W13" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.460998671536992</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>1.563528179884407</v>
       </c>
     </row>
@@ -1468,9 +1550,15 @@
         <v>4.089999657367341</v>
       </c>
       <c r="W14" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.043505788438658</v>
+      </c>
+      <c r="Y14" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9879820816995307</v>
       </c>
     </row>
@@ -1544,9 +1632,15 @@
         <v>3.867542856529099</v>
       </c>
       <c r="W15" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.953512138760803</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>1.240570135514182</v>
       </c>
     </row>
@@ -1620,9 +1714,15 @@
         <v>3.211357443595196</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.308722460504383</v>
+      </c>
+      <c r="Y16" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2948092600078908</v>
       </c>
     </row>
@@ -1696,9 +1796,15 @@
         <v>1.318553055357316</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.933984100271054</v>
+      </c>
+      <c r="Y17" t="n">
         <v>4.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>1.4318195796147</v>
       </c>
     </row>
@@ -1772,9 +1878,15 @@
         <v>2.62679268206101</v>
       </c>
       <c r="W18" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.306540521866749</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.04190665834383445</v>
       </c>
     </row>
@@ -1848,9 +1960,15 @@
         <v>1.588766482264856</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.749921282171195</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.5241670570684518</v>
       </c>
     </row>
@@ -1924,9 +2042,15 @@
         <v>1.52720179808819</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.8952047373113</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>1.47795907234076</v>
       </c>
     </row>
@@ -2000,9 +2124,15 @@
         <v>2.178889162368163</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.394145613889072</v>
+      </c>
+      <c r="Y21" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>2.792350405894643</v>
       </c>
     </row>
@@ -2076,9 +2206,15 @@
         <v>0.4882299141736686</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.468300665009695</v>
+      </c>
+      <c r="Y22" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.3413588553532632</v>
       </c>
     </row>
@@ -2152,9 +2288,15 @@
         <v>-0.7286874573873794</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.415871745601759</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>1.318925130968985</v>
       </c>
     </row>
@@ -2228,9 +2370,15 @@
         <v>0.9706814076159537</v>
       </c>
       <c r="W24" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.991407300590436</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.9</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.02646769569631464</v>
       </c>
     </row>
@@ -2304,9 +2452,15 @@
         <v>1.812934871433695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.74062321716035</v>
+      </c>
+      <c r="Y25" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>1.6146234609159</v>
       </c>
     </row>
@@ -2380,9 +2534,15 @@
         <v>2.836681146078564</v>
       </c>
       <c r="W26" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.228845379066891</v>
+      </c>
+      <c r="Y26" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.2781073857187699</v>
       </c>
     </row>
@@ -2456,9 +2616,15 @@
         <v>2.213638355730779</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.887484095298902</v>
+      </c>
+      <c r="Y27" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1744363512094126</v>
       </c>
     </row>
@@ -2532,9 +2698,15 @@
         <v>-0.07314434845644495</v>
       </c>
       <c r="W28" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.172449257773016</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.5743961937550476</v>
       </c>
     </row>
@@ -2608,9 +2780,15 @@
         <v>3.069828751783565</v>
       </c>
       <c r="W29" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.548903015693563</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1832773858842064</v>
       </c>
     </row>
@@ -2684,9 +2862,15 @@
         <v>3.020212451592337</v>
       </c>
       <c r="W30" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.183990852238864</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.4526855905704575</v>
       </c>
     </row>
@@ -2760,9 +2944,15 @@
         <v>0.7244183293562949</v>
       </c>
       <c r="W31" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.390811886332644</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08042045070469227</v>
       </c>
     </row>
@@ -2836,9 +3026,15 @@
         <v>3.418046353481256</v>
       </c>
       <c r="W32" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.329632962395057</v>
+      </c>
+      <c r="Y32" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.308791093418787</v>
       </c>
     </row>
@@ -2912,9 +3108,15 @@
         <v>3.921818590539228</v>
       </c>
       <c r="W33" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.847503034810838</v>
+      </c>
+      <c r="Y33" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.118366098173313</v>
       </c>
     </row>
@@ -2988,9 +3190,15 @@
         <v>1.745113822835072</v>
       </c>
       <c r="W34" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.087993011267773</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.446947891063852</v>
       </c>
     </row>
@@ -3064,9 +3272,15 @@
         <v>6.286881240386522</v>
       </c>
       <c r="W35" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.710873685443899</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.9083127103508349</v>
       </c>
     </row>
@@ -3140,9 +3354,15 @@
         <v>4.699812795590855</v>
       </c>
       <c r="W36" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.043101363132522</v>
+      </c>
+      <c r="Y36" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.855234176368886</v>
       </c>
     </row>
@@ -3216,9 +3436,15 @@
         <v>3.324272631005157</v>
       </c>
       <c r="W37" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.499833535566298</v>
+      </c>
+      <c r="Y37" t="n">
         <v>5.7</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.9472757392612963</v>
       </c>
     </row>
@@ -3292,9 +3518,15 @@
         <v>5.101712934106711</v>
       </c>
       <c r="W38" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.742482374939836</v>
+      </c>
+      <c r="Y38" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.080911724090174</v>
       </c>
     </row>
@@ -3368,9 +3600,15 @@
         <v>2.714713245774376</v>
       </c>
       <c r="W39" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.276781593320341</v>
+      </c>
+      <c r="Y39" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.125126974624543</v>
       </c>
     </row>
@@ -3444,9 +3682,15 @@
         <v>2.927863002172873</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.278776603993926</v>
+      </c>
+      <c r="Y40" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.3223541646279399</v>
       </c>
     </row>
@@ -3520,9 +3764,15 @@
         <v>3.620061814651929</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.882497159683694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.3</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.05640296111112747</v>
       </c>
     </row>
@@ -3596,9 +3846,15 @@
         <v>3.437893944053055</v>
       </c>
       <c r="W42" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.530222984986847</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1369339143445938</v>
       </c>
     </row>
@@ -3672,9 +3928,15 @@
         <v>3.698468629421459</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.496324271156137</v>
+      </c>
+      <c r="Y43" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.3101918290464555</v>
       </c>
     </row>
@@ -3748,9 +4010,15 @@
         <v>1.655152551874679</v>
       </c>
       <c r="W44" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.980467734324524</v>
+      </c>
+      <c r="Y44" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1580431735184432</v>
       </c>
     </row>
@@ -3824,9 +4092,15 @@
         <v>0.6730790335391478</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.290446118732727</v>
+      </c>
+      <c r="Y45" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>1.29869584701994</v>
       </c>
     </row>
@@ -3900,9 +4174,15 @@
         <v>-4.202019788444873</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.269220885123967</v>
+      </c>
+      <c r="Y46" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.774487856569592</v>
       </c>
     </row>
@@ -3976,9 +4256,15 @@
         <v>-5.332144797353016</v>
       </c>
       <c r="W47" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.482909652814654</v>
+      </c>
+      <c r="Y47" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.5795444236913434</v>
       </c>
     </row>
@@ -4052,9 +4338,15 @@
         <v>-4.050020692270467</v>
       </c>
       <c r="W48" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.55719787856293</v>
+      </c>
+      <c r="Y48" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>1.378494769887912</v>
       </c>
     </row>
@@ -4128,9 +4420,15 @@
         <v>-4.108399626138389</v>
       </c>
       <c r="W49" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.012500841064275</v>
+      </c>
+      <c r="Y49" t="n">
         <v>4.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>1.389412242449846</v>
       </c>
     </row>
@@ -4204,9 +4502,15 @@
         <v>-4.301546794406078</v>
       </c>
       <c r="W50" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.903419192928134</v>
+      </c>
+      <c r="Y50" t="n">
         <v>4.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.6662441135973718</v>
       </c>
     </row>
@@ -4280,9 +4584,15 @@
         <v>-6.550050879271517</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.745149506136197</v>
+      </c>
+      <c r="Y51" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.01416963137326231</v>
       </c>
     </row>
@@ -4356,9 +4666,15 @@
         <v>-8.600100838622637</v>
       </c>
       <c r="W52" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9982193174454408</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.8</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6464531833361252</v>
       </c>
     </row>
@@ -4432,9 +4748,15 @@
         <v>-8.695490563735527</v>
       </c>
       <c r="W53" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.6726504632278013</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.5134783926477238</v>
       </c>
     </row>
@@ -4508,9 +4830,15 @@
         <v>-5.042665491449092</v>
       </c>
       <c r="W54" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1283166369469676</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.2196815022578529</v>
       </c>
     </row>
@@ -4584,9 +4912,15 @@
         <v>-6.072995245148336</v>
       </c>
       <c r="W55" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.2723221213559264</v>
+      </c>
+      <c r="Y55" t="n">
         <v>6</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.1782221374365071</v>
       </c>
     </row>
@@ -4660,9 +4994,15 @@
         <v>-11.62954135705323</v>
       </c>
       <c r="W56" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.7205931236324917</v>
+      </c>
+      <c r="Y56" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7704071167997436</v>
       </c>
     </row>
@@ -4736,9 +5076,15 @@
         <v>-10.97489410161153</v>
       </c>
       <c r="W57" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0005671958320121653</v>
+      </c>
+      <c r="Y57" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>-2.710881044865768</v>
       </c>
     </row>
@@ -4812,9 +5158,15 @@
         <v>-7.649931222508005</v>
       </c>
       <c r="W58" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.2846731012182726</v>
+      </c>
+      <c r="Y58" t="n">
         <v>9.299999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>2.571785291860305</v>
       </c>
     </row>
@@ -4888,9 +5240,15 @@
         <v>3.848289842220325</v>
       </c>
       <c r="W59" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.5435230214744472</v>
+      </c>
+      <c r="Y59" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.5347003877652047</v>
       </c>
     </row>
@@ -4964,9 +5322,15 @@
         <v>0.5345421682616069</v>
       </c>
       <c r="W60" t="n">
+        <v>1.237907608695652</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4636636426805085</v>
+      </c>
+      <c r="Y60" t="n">
         <v>9.933333333333332</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2316557958757778</v>
       </c>
     </row>
@@ -5040,9 +5404,15 @@
         <v>-3.123068890896906</v>
       </c>
       <c r="W61" t="n">
+        <v>1.239027777777778</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-1.255515969506307</v>
+      </c>
+      <c r="Y61" t="n">
         <v>9.833333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.8695499033733426</v>
       </c>
     </row>
@@ -5116,9 +5486,15 @@
         <v>4.359164765355469</v>
       </c>
       <c r="W62" t="n">
+        <v>1.222005494505494</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-0.6587974436907932</v>
+      </c>
+      <c r="Y62" t="n">
         <v>9.633333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.611475437749445</v>
       </c>
     </row>
@@ -5192,9 +5568,15 @@
         <v>-9.274900403378052</v>
       </c>
       <c r="W63" t="n">
+        <v>1.142798913043478</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.7686274454731499</v>
+      </c>
+      <c r="Y63" t="n">
         <v>9.466666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.06005147843442264</v>
       </c>
     </row>
@@ -5268,9 +5650,15 @@
         <v>2.205358754478453</v>
       </c>
       <c r="W64" t="n">
+        <v>1.090942028985507</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-1.713837488051842</v>
+      </c>
+      <c r="Y64" t="n">
         <v>9.500000000000002</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.01929741172564835</v>
       </c>
     </row>
@@ -5344,9 +5732,15 @@
         <v>-0.1414527046832668</v>
       </c>
       <c r="W65" t="n">
+        <v>1.187194444444444</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.5523955381796765</v>
+      </c>
+      <c r="Y65" t="n">
         <v>9.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.2816030764617</v>
       </c>
     </row>
@@ -5420,9 +5814,15 @@
         <v>1.488191995197199</v>
       </c>
       <c r="W66" t="n">
+        <v>1.188012820512821</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.6160995966856758</v>
+      </c>
+      <c r="Y66" t="n">
         <v>9.066666666666668</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-1.37413092782624</v>
       </c>
     </row>
@@ -5496,9 +5896,15 @@
         <v>1.805948636116426</v>
       </c>
       <c r="W67" t="n">
+        <v>1.129936594202898</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.5312383146435701</v>
+      </c>
+      <c r="Y67" t="n">
         <v>9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1708104339709459</v>
       </c>
     </row>
@@ -5572,9 +5978,15 @@
         <v>2.601538182881132</v>
       </c>
       <c r="W68" t="n">
+        <v>1.051413043478261</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.480900461438375</v>
+      </c>
+      <c r="Y68" t="n">
         <v>8.633333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-1.49758907415862</v>
       </c>
     </row>
@@ -5648,9 +6060,15 @@
         <v>5.700259810984361</v>
       </c>
       <c r="W69" t="n">
+        <v>1.004789377289377</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-0.6043163623083506</v>
+      </c>
+      <c r="Y69" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.69651369965635</v>
       </c>
     </row>
@@ -5724,9 +6142,15 @@
         <v>1.243125510361928</v>
       </c>
       <c r="W70" t="n">
+        <v>0.9410897435897435</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-0.6051127647404734</v>
+      </c>
+      <c r="Y70" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1404853857859076</v>
       </c>
     </row>
@@ -5800,9 +6224,15 @@
         <v>3.388962659855582</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8922463768115942</v>
+      </c>
+      <c r="X71" t="n">
+        <v>-0.458529690729568</v>
+      </c>
+      <c r="Y71" t="n">
         <v>8.033333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.5416761710956025</v>
       </c>
     </row>
@@ -5876,9 +6306,15 @@
         <v>6.079223326420092</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8330344202898552</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.5436167718785301</v>
+      </c>
+      <c r="Y72" t="n">
         <v>7.8</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>2.200575517553142</v>
       </c>
     </row>
@@ -5952,9 +6388,15 @@
         <v>5.106807018762514</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8524166666666666</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-0.4500709771001628</v>
+      </c>
+      <c r="Y73" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-1.857736622032089</v>
       </c>
     </row>
@@ -6028,9 +6470,15 @@
         <v>4.45505319953063</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8818772893772894</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-0.3558668697555458</v>
+      </c>
+      <c r="Y74" t="n">
         <v>7.533333333333334</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.4292849461289096</v>
       </c>
     </row>
@@ -6104,9 +6552,15 @@
         <v>3.083624489029562</v>
       </c>
       <c r="W75" t="n">
+        <v>1.064528985507246</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.1052442046910613</v>
+      </c>
+      <c r="Y75" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.7846139255401161</v>
       </c>
     </row>
@@ -6180,9 +6634,15 @@
         <v>0.3029486817853025</v>
       </c>
       <c r="W76" t="n">
+        <v>1.084447463768116</v>
+      </c>
+      <c r="X76" t="n">
+        <v>-0.1737492996224259</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.933333333333334</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1694858444857924</v>
       </c>
     </row>
@@ -6256,9 +6716,15 @@
         <v>1.408328701681917</v>
       </c>
       <c r="W77" t="n">
+        <v>1.087777777777778</v>
+      </c>
+      <c r="X77" t="n">
+        <v>-0.3813196374404387</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.549550677116518</v>
       </c>
     </row>
@@ -6332,9 +6798,15 @@
         <v>3.388375990728056</v>
       </c>
       <c r="W78" t="n">
+        <v>1.052252747252747</v>
+      </c>
+      <c r="X78" t="n">
+        <v>-0.1115434667139886</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.2</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.049933222843982</v>
       </c>
     </row>
@@ -6408,9 +6880,15 @@
         <v>3.216993250859791</v>
       </c>
       <c r="W79" t="n">
+        <v>1.036884057971015</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.1092034865486679</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.066666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1708975181365698</v>
       </c>
     </row>
@@ -6484,9 +6962,15 @@
         <v>3.674493546137282</v>
       </c>
       <c r="W80" t="n">
+        <v>1.023007246376812</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.1105227869426536</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.012975200663767</v>
       </c>
     </row>
@@ -6560,9 +7044,15 @@
         <v>2.591556652629318</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9642777777777778</v>
+      </c>
+      <c r="X81" t="n">
+        <v>-0.3013571391980347</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.293423685768849</v>
       </c>
     </row>
@@ -6636,9 +7126,15 @@
         <v>2.967706301773021</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9544322344322343</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.4294736815605339</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.1832225112716888</v>
       </c>
     </row>
@@ -6712,9 +7208,15 @@
         <v>3.570837356708343</v>
       </c>
       <c r="W83" t="n">
+        <v>1.001304347826087</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.4786361736432003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.1465583126280143</v>
       </c>
     </row>
@@ -6788,9 +7290,15 @@
         <v>2.214535131670246</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9722282608695652</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.7005804365193786</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.2041466729368442</v>
       </c>
     </row>
@@ -6864,9 +7372,15 @@
         <v>3.866389983501776</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9108882783882782</v>
+      </c>
+      <c r="X85" t="n">
+        <v>-0.03080038960218154</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.1529241743295906</v>
       </c>
     </row>
@@ -6940,9 +7454,15 @@
         <v>0.7825699221433952</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8701648351648352</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.58780618604174</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.9</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3512593181539443</v>
       </c>
     </row>
@@ -7016,9 +7536,15 @@
         <v>0.820936650418127</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8362771739130437</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.8012221290725225</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.150736775528512</v>
       </c>
     </row>
@@ -7092,9 +7618,15 @@
         <v>2.838338660318382</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8446286231884059</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.5514785745439379</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5440147672289091</v>
       </c>
     </row>
@@ -7168,9 +7700,15 @@
         <v>3.553215503062373</v>
       </c>
       <c r="W89" t="n">
+        <v>0.902777777777778</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.5475576136130671</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.566666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.5599123023416485</v>
       </c>
     </row>
@@ -7244,9 +7782,15 @@
         <v>0.6771246909118293</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7823260073260079</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.7466772797919092</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.366666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.182603681591328</v>
       </c>
     </row>
@@ -7320,9 +7864,15 @@
         <v>0.6104679604021086</v>
       </c>
       <c r="W91" t="n">
+        <v>0.7365760869565222</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.8370957471934443</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.3</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.4866813859949767</v>
       </c>
     </row>
@@ -7396,9 +7946,15 @@
         <v>3.108640171881305</v>
       </c>
       <c r="W92" t="n">
+        <v>0.7121648550724642</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.7616564906511297</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6302779642709974</v>
       </c>
     </row>
@@ -7472,9 +8028,15 @@
         <v>0.8385309833341977</v>
       </c>
       <c r="W93" t="n">
+        <v>0.7215833333333328</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.3612070786971495</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4383706006800756</v>
       </c>
     </row>
@@ -7548,9 +8110,15 @@
         <v>0.7419240828341411</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7307692307692306</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.7947960213288179</v>
+      </c>
+      <c r="Y94" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.725654244081147</v>
       </c>
     </row>
@@ -7624,9 +8192,15 @@
         <v>-0.06854569992093716</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6967844202898559</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.9044461515540584</v>
+      </c>
+      <c r="Y95" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.2036050647505421</v>
       </c>
     </row>
@@ -7700,9 +8274,15 @@
         <v>-0.5777229189220903</v>
       </c>
       <c r="W96" t="n">
+        <v>0.6649728260869566</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5947307630604718</v>
+      </c>
+      <c r="Y96" t="n">
         <v>3.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.2186493976614562</v>
       </c>
     </row>
@@ -7776,9 +8356,15 @@
         <v>0.3704063749350713</v>
       </c>
       <c r="W97" t="n">
+        <v>0.555388888888888</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.2638217970103877</v>
+      </c>
+      <c r="Y97" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>1.981420049787539</v>
       </c>
     </row>
@@ -7852,9 +8438,15 @@
         <v>-0.3405805878994995</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4256593406593407</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.8089901828620003</v>
+      </c>
+      <c r="Y98" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.0276304779866033</v>
       </c>
     </row>
@@ -7928,9 +8520,15 @@
         <v>1.973333163680036</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3727898550724638</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.812643581690855</v>
+      </c>
+      <c r="Y99" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.1195472072743897</v>
       </c>
     </row>
@@ -8002,9 +8600,13 @@
         <v>2.080147018448573</v>
       </c>
       <c r="W100" t="n">
+        <v>0.4927536231884057</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3500133500317088</v>
       </c>
     </row>
@@ -8019,7 +8621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8135,10 +8737,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8214,9 +8826,15 @@
         <v>-2.624678796331396</v>
       </c>
       <c r="W2" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.442462199390804</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3252334025838594</v>
       </c>
     </row>
@@ -8290,9 +8908,15 @@
         <v>4.04591287651782</v>
       </c>
       <c r="W3" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.576883913617963</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0920855831540509</v>
       </c>
     </row>
@@ -8366,9 +8990,15 @@
         <v>2.496809167036679</v>
       </c>
       <c r="W4" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9124234820257633</v>
+      </c>
+      <c r="Y4" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.352701556438597</v>
       </c>
     </row>
@@ -8442,9 +9072,15 @@
         <v>2.967672927588798</v>
       </c>
       <c r="W5" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.743220811679411</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.6316334282191225</v>
       </c>
     </row>
@@ -8518,9 +9154,15 @@
         <v>4.723561340933954</v>
       </c>
       <c r="W6" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.567000009466767</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5002696696877098</v>
       </c>
     </row>
@@ -8594,9 +9236,15 @@
         <v>0.8036266885600564</v>
       </c>
       <c r="W7" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.652432896110348</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2909016793391079</v>
       </c>
     </row>
@@ -8670,9 +9318,15 @@
         <v>-0.6910721451132128</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.403017477151703</v>
+      </c>
+      <c r="Y8" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1515404710328598</v>
       </c>
     </row>
@@ -8746,9 +9400,15 @@
         <v>0.9772275274890597</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.189601033430708</v>
+      </c>
+      <c r="Y9" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.682825505453847</v>
       </c>
     </row>
@@ -8822,9 +9482,15 @@
         <v>1.875776898790819</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.426762081980713</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.4148682118999314</v>
       </c>
     </row>
@@ -8898,9 +9564,15 @@
         <v>1.777134715082598</v>
       </c>
       <c r="W11" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.315623914253159</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.7127871952926002</v>
       </c>
     </row>
@@ -8974,9 +9646,15 @@
         <v>1.77903126145105</v>
       </c>
       <c r="W12" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.996656064319257</v>
+      </c>
+      <c r="Y12" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.44156517173449</v>
       </c>
     </row>
@@ -9050,9 +9728,15 @@
         <v>2.329595486325178</v>
       </c>
       <c r="W13" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.460998671536992</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>1.563528179884407</v>
       </c>
     </row>
@@ -9126,9 +9810,15 @@
         <v>4.089999657367341</v>
       </c>
       <c r="W14" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.043505788438658</v>
+      </c>
+      <c r="Y14" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9879820816995307</v>
       </c>
     </row>
@@ -9202,9 +9892,15 @@
         <v>3.867542856529099</v>
       </c>
       <c r="W15" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.953512138760803</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>1.240570135514182</v>
       </c>
     </row>
@@ -9278,9 +9974,15 @@
         <v>3.211357443595196</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.308722460504383</v>
+      </c>
+      <c r="Y16" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2948092600078908</v>
       </c>
     </row>
@@ -9354,9 +10056,15 @@
         <v>1.318553055357316</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.933984100271054</v>
+      </c>
+      <c r="Y17" t="n">
         <v>4.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>1.4318195796147</v>
       </c>
     </row>
@@ -9430,9 +10138,15 @@
         <v>2.62679268206101</v>
       </c>
       <c r="W18" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.306540521866749</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.04190665834383445</v>
       </c>
     </row>
@@ -9506,9 +10220,15 @@
         <v>1.588766482264856</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.749921282171195</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.5241670570684518</v>
       </c>
     </row>
@@ -9582,9 +10302,15 @@
         <v>1.52720179808819</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.8952047373113</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>1.47795907234076</v>
       </c>
     </row>
@@ -9658,9 +10384,15 @@
         <v>2.178889162368163</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.394145613889072</v>
+      </c>
+      <c r="Y21" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>2.792350405894643</v>
       </c>
     </row>
@@ -9734,9 +10466,15 @@
         <v>0.4882299141736686</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.468300665009695</v>
+      </c>
+      <c r="Y22" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.3413588553532632</v>
       </c>
     </row>
@@ -9810,9 +10548,15 @@
         <v>-0.7286874573873794</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.415871745601759</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>1.318925130968985</v>
       </c>
     </row>
@@ -9886,9 +10630,15 @@
         <v>0.9706814076159537</v>
       </c>
       <c r="W24" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.991407300590436</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.9</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.02646769569631464</v>
       </c>
     </row>
@@ -9962,9 +10712,15 @@
         <v>1.812934871433695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.74062321716035</v>
+      </c>
+      <c r="Y25" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>1.6146234609159</v>
       </c>
     </row>
@@ -10038,9 +10794,15 @@
         <v>2.836681146078564</v>
       </c>
       <c r="W26" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.228845379066891</v>
+      </c>
+      <c r="Y26" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.2781073857187699</v>
       </c>
     </row>
@@ -10114,9 +10876,15 @@
         <v>2.213638355730779</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.887484095298902</v>
+      </c>
+      <c r="Y27" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1744363512094126</v>
       </c>
     </row>
@@ -10190,9 +10958,15 @@
         <v>-0.07314434845644495</v>
       </c>
       <c r="W28" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.172449257773016</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.5743961937550476</v>
       </c>
     </row>
@@ -10266,9 +11040,15 @@
         <v>3.069828751783565</v>
       </c>
       <c r="W29" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.548903015693563</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1832773858842064</v>
       </c>
     </row>
@@ -10342,9 +11122,15 @@
         <v>3.020212451592337</v>
       </c>
       <c r="W30" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.183990852238864</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.4526855905704575</v>
       </c>
     </row>
@@ -10418,9 +11204,15 @@
         <v>0.7244183293562949</v>
       </c>
       <c r="W31" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.390811886332644</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08042045070469227</v>
       </c>
     </row>
@@ -10494,9 +11286,15 @@
         <v>3.418046353481256</v>
       </c>
       <c r="W32" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.329632962395057</v>
+      </c>
+      <c r="Y32" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.308791093418787</v>
       </c>
     </row>
@@ -10570,9 +11368,15 @@
         <v>3.921818590539228</v>
       </c>
       <c r="W33" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.847503034810838</v>
+      </c>
+      <c r="Y33" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.118366098173313</v>
       </c>
     </row>
@@ -10646,9 +11450,15 @@
         <v>1.745113822835072</v>
       </c>
       <c r="W34" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.087993011267773</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.446947891063852</v>
       </c>
     </row>
@@ -10722,9 +11532,15 @@
         <v>6.286881240386522</v>
       </c>
       <c r="W35" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.710873685443899</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.9083127103508349</v>
       </c>
     </row>
@@ -10798,9 +11614,15 @@
         <v>4.699812795590855</v>
       </c>
       <c r="W36" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.043101363132522</v>
+      </c>
+      <c r="Y36" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.855234176368886</v>
       </c>
     </row>
@@ -10874,9 +11696,15 @@
         <v>3.324272631005157</v>
       </c>
       <c r="W37" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.499833535566298</v>
+      </c>
+      <c r="Y37" t="n">
         <v>5.7</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.9472757392612963</v>
       </c>
     </row>
@@ -10950,9 +11778,15 @@
         <v>5.101712934106711</v>
       </c>
       <c r="W38" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.742482374939836</v>
+      </c>
+      <c r="Y38" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.080911724090174</v>
       </c>
     </row>
@@ -11026,9 +11860,15 @@
         <v>2.714713245774376</v>
       </c>
       <c r="W39" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.276781593320341</v>
+      </c>
+      <c r="Y39" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.125126974624543</v>
       </c>
     </row>
@@ -11102,9 +11942,15 @@
         <v>2.927863002172873</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.278776603993926</v>
+      </c>
+      <c r="Y40" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.3223541646279399</v>
       </c>
     </row>
@@ -11178,9 +12024,15 @@
         <v>3.620061814651929</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.882497159683694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.3</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.05640296111112747</v>
       </c>
     </row>
@@ -11254,9 +12106,15 @@
         <v>3.437893944053055</v>
       </c>
       <c r="W42" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.530222984986847</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1369339143445938</v>
       </c>
     </row>
@@ -11330,9 +12188,15 @@
         <v>3.698468629421459</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.496324271156137</v>
+      </c>
+      <c r="Y43" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.3101918290464555</v>
       </c>
     </row>
@@ -11406,9 +12270,15 @@
         <v>1.655152551874679</v>
       </c>
       <c r="W44" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.980467734324524</v>
+      </c>
+      <c r="Y44" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1580431735184432</v>
       </c>
     </row>
@@ -11482,9 +12352,15 @@
         <v>0.6730790335391478</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.290446118732727</v>
+      </c>
+      <c r="Y45" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>1.29869584701994</v>
       </c>
     </row>
@@ -11558,9 +12434,15 @@
         <v>-4.202019788444873</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.269220885123967</v>
+      </c>
+      <c r="Y46" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.774487856569592</v>
       </c>
     </row>
@@ -11634,9 +12516,15 @@
         <v>-5.332144797353016</v>
       </c>
       <c r="W47" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.482909652814654</v>
+      </c>
+      <c r="Y47" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.5795444236913434</v>
       </c>
     </row>
@@ -11710,9 +12598,15 @@
         <v>-4.050020692270467</v>
       </c>
       <c r="W48" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.55719787856293</v>
+      </c>
+      <c r="Y48" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>1.378494769887912</v>
       </c>
     </row>
@@ -11786,9 +12680,15 @@
         <v>-4.108399626138389</v>
       </c>
       <c r="W49" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.012500841064275</v>
+      </c>
+      <c r="Y49" t="n">
         <v>4.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>1.389412242449846</v>
       </c>
     </row>
@@ -11862,9 +12762,15 @@
         <v>-4.301546794406078</v>
       </c>
       <c r="W50" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.903419192928134</v>
+      </c>
+      <c r="Y50" t="n">
         <v>4.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.6662441135973718</v>
       </c>
     </row>
@@ -11938,9 +12844,15 @@
         <v>-6.550050879271517</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.745149506136197</v>
+      </c>
+      <c r="Y51" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.01416963137326231</v>
       </c>
     </row>
@@ -12014,9 +12926,15 @@
         <v>-8.600100838622637</v>
       </c>
       <c r="W52" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9982193174454408</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.8</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6464531833361252</v>
       </c>
     </row>
@@ -12090,9 +13008,15 @@
         <v>-8.695490563735527</v>
       </c>
       <c r="W53" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.6726504632278013</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.5134783926477238</v>
       </c>
     </row>
@@ -12166,9 +13090,15 @@
         <v>-5.042665491449092</v>
       </c>
       <c r="W54" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1283166369469676</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.2196815022578529</v>
       </c>
     </row>
@@ -12242,9 +13172,15 @@
         <v>-6.072995245148336</v>
       </c>
       <c r="W55" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.2723221213559264</v>
+      </c>
+      <c r="Y55" t="n">
         <v>6</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.1782221374365071</v>
       </c>
     </row>
@@ -12318,9 +13254,15 @@
         <v>-11.62954135705323</v>
       </c>
       <c r="W56" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.7205931236324917</v>
+      </c>
+      <c r="Y56" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7704071167997436</v>
       </c>
     </row>
@@ -12394,9 +13336,15 @@
         <v>-10.97489410161153</v>
       </c>
       <c r="W57" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0005671958320121653</v>
+      </c>
+      <c r="Y57" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>-2.710881044865768</v>
       </c>
     </row>
@@ -12470,9 +13418,15 @@
         <v>-7.649931222508005</v>
       </c>
       <c r="W58" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.2846731012182726</v>
+      </c>
+      <c r="Y58" t="n">
         <v>9.299999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>2.571785291860305</v>
       </c>
     </row>
@@ -12546,9 +13500,15 @@
         <v>3.848289842220325</v>
       </c>
       <c r="W59" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.5435230214744472</v>
+      </c>
+      <c r="Y59" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.5347003877652047</v>
       </c>
     </row>
@@ -12622,9 +13582,15 @@
         <v>0.5345421682616069</v>
       </c>
       <c r="W60" t="n">
+        <v>1.237907608695652</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4636636426805085</v>
+      </c>
+      <c r="Y60" t="n">
         <v>9.933333333333332</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2316557958757778</v>
       </c>
     </row>
@@ -12698,9 +13664,15 @@
         <v>-3.123068890896906</v>
       </c>
       <c r="W61" t="n">
+        <v>1.239027777777778</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-1.255515969506307</v>
+      </c>
+      <c r="Y61" t="n">
         <v>9.833333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.8695499033733426</v>
       </c>
     </row>
@@ -12774,9 +13746,15 @@
         <v>4.359164765355469</v>
       </c>
       <c r="W62" t="n">
+        <v>1.222005494505494</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-0.6587974436907932</v>
+      </c>
+      <c r="Y62" t="n">
         <v>9.633333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.611475437749445</v>
       </c>
     </row>
@@ -12850,9 +13828,15 @@
         <v>-9.274900403378052</v>
       </c>
       <c r="W63" t="n">
+        <v>1.142798913043478</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.7686274454731499</v>
+      </c>
+      <c r="Y63" t="n">
         <v>9.466666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.06005147843442264</v>
       </c>
     </row>
@@ -12926,9 +13910,15 @@
         <v>2.205358754478453</v>
       </c>
       <c r="W64" t="n">
+        <v>1.090942028985507</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-1.713837488051842</v>
+      </c>
+      <c r="Y64" t="n">
         <v>9.500000000000002</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.01929741172564835</v>
       </c>
     </row>
@@ -13002,9 +13992,15 @@
         <v>-0.1414527046832668</v>
       </c>
       <c r="W65" t="n">
+        <v>1.187194444444444</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.5523955381796765</v>
+      </c>
+      <c r="Y65" t="n">
         <v>9.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.2816030764617</v>
       </c>
     </row>
@@ -13078,9 +14074,15 @@
         <v>1.488191995197199</v>
       </c>
       <c r="W66" t="n">
+        <v>1.188012820512821</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.6160995966856758</v>
+      </c>
+      <c r="Y66" t="n">
         <v>9.066666666666668</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-1.37413092782624</v>
       </c>
     </row>
@@ -13154,9 +14156,15 @@
         <v>1.805948636116426</v>
       </c>
       <c r="W67" t="n">
+        <v>1.129936594202898</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.5312383146435701</v>
+      </c>
+      <c r="Y67" t="n">
         <v>9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1708104339709459</v>
       </c>
     </row>
@@ -13230,9 +14238,15 @@
         <v>2.601538182881132</v>
       </c>
       <c r="W68" t="n">
+        <v>1.051413043478261</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.480900461438375</v>
+      </c>
+      <c r="Y68" t="n">
         <v>8.633333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-1.49758907415862</v>
       </c>
     </row>
@@ -13306,9 +14320,15 @@
         <v>5.700259810984361</v>
       </c>
       <c r="W69" t="n">
+        <v>1.004789377289377</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-0.6043163623083506</v>
+      </c>
+      <c r="Y69" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.69651369965635</v>
       </c>
     </row>
@@ -13382,9 +14402,15 @@
         <v>1.243125510361928</v>
       </c>
       <c r="W70" t="n">
+        <v>0.9410897435897435</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-0.6051127647404734</v>
+      </c>
+      <c r="Y70" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1404853857859076</v>
       </c>
     </row>
@@ -13458,9 +14484,15 @@
         <v>3.388962659855582</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8922463768115942</v>
+      </c>
+      <c r="X71" t="n">
+        <v>-0.458529690729568</v>
+      </c>
+      <c r="Y71" t="n">
         <v>8.033333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.5416761710956025</v>
       </c>
     </row>
@@ -13534,9 +14566,15 @@
         <v>6.079223326420092</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8330344202898552</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.5436167718785301</v>
+      </c>
+      <c r="Y72" t="n">
         <v>7.8</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>2.200575517553142</v>
       </c>
     </row>
@@ -13610,9 +14648,15 @@
         <v>5.106807018762514</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8524166666666666</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-0.4500709771001628</v>
+      </c>
+      <c r="Y73" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-1.857736622032089</v>
       </c>
     </row>
@@ -13686,9 +14730,15 @@
         <v>4.45505319953063</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8818772893772894</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-0.3558668697555458</v>
+      </c>
+      <c r="Y74" t="n">
         <v>7.533333333333334</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.4292849461289096</v>
       </c>
     </row>
@@ -13762,9 +14812,15 @@
         <v>3.083624489029562</v>
       </c>
       <c r="W75" t="n">
+        <v>1.064528985507246</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.1052442046910613</v>
+      </c>
+      <c r="Y75" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.7846139255401161</v>
       </c>
     </row>
@@ -13838,9 +14894,15 @@
         <v>0.3029486817853025</v>
       </c>
       <c r="W76" t="n">
+        <v>1.084447463768116</v>
+      </c>
+      <c r="X76" t="n">
+        <v>-0.1737492996224259</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.933333333333334</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1694858444857924</v>
       </c>
     </row>
@@ -13914,9 +14976,15 @@
         <v>1.408328701681917</v>
       </c>
       <c r="W77" t="n">
+        <v>1.087777777777778</v>
+      </c>
+      <c r="X77" t="n">
+        <v>-0.3813196374404387</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.549550677116518</v>
       </c>
     </row>
@@ -13990,9 +15058,15 @@
         <v>3.388375990728056</v>
       </c>
       <c r="W78" t="n">
+        <v>1.052252747252747</v>
+      </c>
+      <c r="X78" t="n">
+        <v>-0.1115434667139886</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.2</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.049933222843982</v>
       </c>
     </row>
@@ -14066,9 +15140,15 @@
         <v>3.216993250859791</v>
       </c>
       <c r="W79" t="n">
+        <v>1.036884057971015</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.1092034865486679</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.066666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1708975181365698</v>
       </c>
     </row>
@@ -14142,9 +15222,15 @@
         <v>3.674493546137282</v>
       </c>
       <c r="W80" t="n">
+        <v>1.023007246376812</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.1105227869426536</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.012975200663767</v>
       </c>
     </row>
@@ -14218,9 +15304,15 @@
         <v>2.591556652629318</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9642777777777778</v>
+      </c>
+      <c r="X81" t="n">
+        <v>-0.3013571391980347</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.293423685768849</v>
       </c>
     </row>
@@ -14294,9 +15386,15 @@
         <v>2.967706301773021</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9544322344322343</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.4294736815605339</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.1832225112716888</v>
       </c>
     </row>
@@ -14370,9 +15468,15 @@
         <v>3.570837356708343</v>
       </c>
       <c r="W83" t="n">
+        <v>1.001304347826087</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.4786361736432003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.1465583126280143</v>
       </c>
     </row>
@@ -14446,9 +15550,15 @@
         <v>2.214535131670246</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9722282608695652</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.7005804365193786</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.2041466729368442</v>
       </c>
     </row>
@@ -14522,9 +15632,15 @@
         <v>3.866389983501776</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9108882783882782</v>
+      </c>
+      <c r="X85" t="n">
+        <v>-0.03080038960218154</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.1529241743295906</v>
       </c>
     </row>
@@ -14598,9 +15714,15 @@
         <v>0.7825699221433952</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8701648351648352</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.58780618604174</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.9</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3512593181539443</v>
       </c>
     </row>
@@ -14674,9 +15796,15 @@
         <v>0.820936650418127</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8362771739130437</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.8012221290725225</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.150736775528512</v>
       </c>
     </row>
@@ -14750,9 +15878,15 @@
         <v>2.838338660318382</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8446286231884059</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.5514785745439379</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5440147672289091</v>
       </c>
     </row>
@@ -14826,9 +15960,15 @@
         <v>3.553215503062373</v>
       </c>
       <c r="W89" t="n">
+        <v>0.902777777777778</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.5475576136130671</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.566666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.5599123023416485</v>
       </c>
     </row>
@@ -14902,9 +16042,15 @@
         <v>0.6771246909118293</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7823260073260079</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.7466772797919092</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.366666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.182603681591328</v>
       </c>
     </row>
@@ -14978,9 +16124,15 @@
         <v>0.6104679604021086</v>
       </c>
       <c r="W91" t="n">
+        <v>0.7365760869565222</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.8370957471934443</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.3</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.4866813859949767</v>
       </c>
     </row>
@@ -15054,9 +16206,15 @@
         <v>3.108640171881305</v>
       </c>
       <c r="W92" t="n">
+        <v>0.7121648550724642</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.7616564906511297</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6302779642709974</v>
       </c>
     </row>
@@ -15130,9 +16288,15 @@
         <v>0.8385309833341977</v>
       </c>
       <c r="W93" t="n">
+        <v>0.7215833333333328</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.3612070786971495</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4383706006800756</v>
       </c>
     </row>
@@ -15206,9 +16370,15 @@
         <v>0.7419240828341411</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7307692307692306</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.7947960213288179</v>
+      </c>
+      <c r="Y94" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.725654244081147</v>
       </c>
     </row>
@@ -15282,9 +16452,15 @@
         <v>-0.06854569992093716</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6967844202898559</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.9044461515540584</v>
+      </c>
+      <c r="Y95" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.2036050647505421</v>
       </c>
     </row>
@@ -15358,9 +16534,15 @@
         <v>-0.5777229189220903</v>
       </c>
       <c r="W96" t="n">
+        <v>0.6649728260869566</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5947307630604718</v>
+      </c>
+      <c r="Y96" t="n">
         <v>3.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.2186493976614562</v>
       </c>
     </row>
@@ -15434,9 +16616,15 @@
         <v>0.3704063749350713</v>
       </c>
       <c r="W97" t="n">
+        <v>0.555388888888888</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.2638217970103877</v>
+      </c>
+      <c r="Y97" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>1.981420049787539</v>
       </c>
     </row>
@@ -15510,9 +16698,15 @@
         <v>-0.3405805878994995</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4256593406593407</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.8089901828620003</v>
+      </c>
+      <c r="Y98" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.0276304779866033</v>
       </c>
     </row>
@@ -15586,9 +16780,15 @@
         <v>1.973333163680036</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3727898550724638</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.812643581690855</v>
+      </c>
+      <c r="Y99" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.1195472072743897</v>
       </c>
     </row>
@@ -15660,9 +16860,13 @@
         <v>2.080147018448573</v>
       </c>
       <c r="W100" t="n">
+        <v>0.4927536231884057</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3500133500317088</v>
       </c>
     </row>
@@ -15707,6 +16911,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15719,7 +16925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15835,10 +17041,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15914,9 +17130,15 @@
         <v>-2.624678796331396</v>
       </c>
       <c r="W2" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.442462199390804</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3252334025838594</v>
       </c>
     </row>
@@ -15990,9 +17212,15 @@
         <v>4.04591287651782</v>
       </c>
       <c r="W3" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.576883913617963</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0920855831540509</v>
       </c>
     </row>
@@ -16066,9 +17294,15 @@
         <v>2.496809167036679</v>
       </c>
       <c r="W4" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9124234820257633</v>
+      </c>
+      <c r="Y4" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.352701556438597</v>
       </c>
     </row>
@@ -16142,9 +17376,15 @@
         <v>2.967672927588798</v>
       </c>
       <c r="W5" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.743220811679411</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.6316334282191225</v>
       </c>
     </row>
@@ -16218,9 +17458,15 @@
         <v>4.723561340933954</v>
       </c>
       <c r="W6" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.567000009466767</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5002696696877098</v>
       </c>
     </row>
@@ -16294,9 +17540,15 @@
         <v>0.8036266885600564</v>
       </c>
       <c r="W7" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.652432896110348</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2909016793391079</v>
       </c>
     </row>
@@ -16370,9 +17622,15 @@
         <v>-0.6910721451132128</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.403017477151703</v>
+      </c>
+      <c r="Y8" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1515404710328598</v>
       </c>
     </row>
@@ -16446,9 +17704,15 @@
         <v>0.9772275274890597</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.189601033430708</v>
+      </c>
+      <c r="Y9" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.682825505453847</v>
       </c>
     </row>
@@ -16522,9 +17786,15 @@
         <v>1.875776898790819</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.426762081980713</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.4148682118999314</v>
       </c>
     </row>
@@ -16598,9 +17868,15 @@
         <v>1.777134715082598</v>
       </c>
       <c r="W11" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.315623914253159</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.7127871952926002</v>
       </c>
     </row>
@@ -16674,9 +17950,15 @@
         <v>1.77903126145105</v>
       </c>
       <c r="W12" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.996656064319257</v>
+      </c>
+      <c r="Y12" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.44156517173449</v>
       </c>
     </row>
@@ -16750,9 +18032,15 @@
         <v>2.329595486325178</v>
       </c>
       <c r="W13" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.460998671536992</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>1.563528179884407</v>
       </c>
     </row>
@@ -16826,9 +18114,15 @@
         <v>4.089999657367341</v>
       </c>
       <c r="W14" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.043505788438658</v>
+      </c>
+      <c r="Y14" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9879820816995307</v>
       </c>
     </row>
@@ -16902,9 +18196,15 @@
         <v>3.867542856529099</v>
       </c>
       <c r="W15" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.953512138760803</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>1.240570135514182</v>
       </c>
     </row>
@@ -16978,9 +18278,15 @@
         <v>3.211357443595196</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.308722460504383</v>
+      </c>
+      <c r="Y16" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2948092600078908</v>
       </c>
     </row>
@@ -17054,9 +18360,15 @@
         <v>1.318553055357316</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.933984100271054</v>
+      </c>
+      <c r="Y17" t="n">
         <v>4.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>1.4318195796147</v>
       </c>
     </row>
@@ -17130,9 +18442,15 @@
         <v>2.62679268206101</v>
       </c>
       <c r="W18" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.306540521866749</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.04190665834383445</v>
       </c>
     </row>
@@ -17206,9 +18524,15 @@
         <v>1.588766482264856</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.749921282171195</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.5241670570684518</v>
       </c>
     </row>
@@ -17282,9 +18606,15 @@
         <v>1.52720179808819</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.8952047373113</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>1.47795907234076</v>
       </c>
     </row>
@@ -17358,9 +18688,15 @@
         <v>2.178889162368163</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.394145613889072</v>
+      </c>
+      <c r="Y21" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>2.792350405894643</v>
       </c>
     </row>
@@ -17434,9 +18770,15 @@
         <v>0.4882299141736686</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.468300665009695</v>
+      </c>
+      <c r="Y22" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.3413588553532632</v>
       </c>
     </row>
@@ -17510,9 +18852,15 @@
         <v>-0.7286874573873794</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.415871745601759</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>1.318925130968985</v>
       </c>
     </row>
@@ -17586,9 +18934,15 @@
         <v>0.9706814076159537</v>
       </c>
       <c r="W24" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.991407300590436</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.9</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.02646769569631464</v>
       </c>
     </row>
@@ -17662,9 +19016,15 @@
         <v>1.812934871433695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.74062321716035</v>
+      </c>
+      <c r="Y25" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>1.6146234609159</v>
       </c>
     </row>
@@ -17738,9 +19098,15 @@
         <v>2.836681146078564</v>
       </c>
       <c r="W26" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.228845379066891</v>
+      </c>
+      <c r="Y26" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.2781073857187699</v>
       </c>
     </row>
@@ -17814,9 +19180,15 @@
         <v>2.213638355730779</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.887484095298902</v>
+      </c>
+      <c r="Y27" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1744363512094126</v>
       </c>
     </row>
@@ -17890,9 +19262,15 @@
         <v>-0.07314434845644495</v>
       </c>
       <c r="W28" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.172449257773016</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.5743961937550476</v>
       </c>
     </row>
@@ -17966,9 +19344,15 @@
         <v>3.069828751783565</v>
       </c>
       <c r="W29" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.548903015693563</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1832773858842064</v>
       </c>
     </row>
@@ -18042,9 +19426,15 @@
         <v>3.020212451592337</v>
       </c>
       <c r="W30" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.183990852238864</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.4526855905704575</v>
       </c>
     </row>
@@ -18118,9 +19508,15 @@
         <v>0.7244183293562949</v>
       </c>
       <c r="W31" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.390811886332644</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08042045070469227</v>
       </c>
     </row>
@@ -18194,9 +19590,15 @@
         <v>3.418046353481256</v>
       </c>
       <c r="W32" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.329632962395057</v>
+      </c>
+      <c r="Y32" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.308791093418787</v>
       </c>
     </row>
@@ -18270,9 +19672,15 @@
         <v>3.921818590539228</v>
       </c>
       <c r="W33" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.847503034810838</v>
+      </c>
+      <c r="Y33" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.118366098173313</v>
       </c>
     </row>
@@ -18346,9 +19754,15 @@
         <v>1.745113822835072</v>
       </c>
       <c r="W34" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.087993011267773</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.446947891063852</v>
       </c>
     </row>
@@ -18422,9 +19836,15 @@
         <v>6.286881240386522</v>
       </c>
       <c r="W35" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.710873685443899</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.9083127103508349</v>
       </c>
     </row>
@@ -18498,9 +19918,15 @@
         <v>4.699812795590855</v>
       </c>
       <c r="W36" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.043101363132522</v>
+      </c>
+      <c r="Y36" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.855234176368886</v>
       </c>
     </row>
@@ -18574,9 +20000,15 @@
         <v>3.324272631005157</v>
       </c>
       <c r="W37" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.499833535566298</v>
+      </c>
+      <c r="Y37" t="n">
         <v>5.7</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.9472757392612963</v>
       </c>
     </row>
@@ -18650,9 +20082,15 @@
         <v>5.101712934106711</v>
       </c>
       <c r="W38" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.742482374939836</v>
+      </c>
+      <c r="Y38" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.080911724090174</v>
       </c>
     </row>
@@ -18726,9 +20164,15 @@
         <v>2.714713245774376</v>
       </c>
       <c r="W39" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.276781593320341</v>
+      </c>
+      <c r="Y39" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.125126974624543</v>
       </c>
     </row>
@@ -18802,9 +20246,15 @@
         <v>2.927863002172873</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.278776603993926</v>
+      </c>
+      <c r="Y40" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.3223541646279399</v>
       </c>
     </row>
@@ -18878,9 +20328,15 @@
         <v>3.620061814651929</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.882497159683694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.3</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.05640296111112747</v>
       </c>
     </row>
@@ -18954,9 +20410,15 @@
         <v>3.437893944053055</v>
       </c>
       <c r="W42" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.530222984986847</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1369339143445938</v>
       </c>
     </row>
@@ -19030,9 +20492,15 @@
         <v>3.698468629421459</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.496324271156137</v>
+      </c>
+      <c r="Y43" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.3101918290464555</v>
       </c>
     </row>
@@ -19106,9 +20574,15 @@
         <v>1.655152551874679</v>
       </c>
       <c r="W44" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.980467734324524</v>
+      </c>
+      <c r="Y44" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1580431735184432</v>
       </c>
     </row>
@@ -19182,9 +20656,15 @@
         <v>0.6730790335391478</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.290446118732727</v>
+      </c>
+      <c r="Y45" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>1.29869584701994</v>
       </c>
     </row>
@@ -19258,9 +20738,15 @@
         <v>-4.202019788444873</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.269220885123967</v>
+      </c>
+      <c r="Y46" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.774487856569592</v>
       </c>
     </row>
@@ -19334,9 +20820,15 @@
         <v>-5.332144797353016</v>
       </c>
       <c r="W47" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.482909652814654</v>
+      </c>
+      <c r="Y47" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.5795444236913434</v>
       </c>
     </row>
@@ -19410,9 +20902,15 @@
         <v>-4.050020692270467</v>
       </c>
       <c r="W48" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.55719787856293</v>
+      </c>
+      <c r="Y48" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>1.378494769887912</v>
       </c>
     </row>
@@ -19486,9 +20984,15 @@
         <v>-4.108399626138389</v>
       </c>
       <c r="W49" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.012500841064275</v>
+      </c>
+      <c r="Y49" t="n">
         <v>4.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>1.389412242449846</v>
       </c>
     </row>
@@ -19562,9 +21066,15 @@
         <v>-4.301546794406078</v>
       </c>
       <c r="W50" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.903419192928134</v>
+      </c>
+      <c r="Y50" t="n">
         <v>4.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.6662441135973718</v>
       </c>
     </row>
@@ -19638,9 +21148,15 @@
         <v>-6.550050879271517</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.745149506136197</v>
+      </c>
+      <c r="Y51" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.01416963137326231</v>
       </c>
     </row>
@@ -19714,9 +21230,15 @@
         <v>-8.600100838622637</v>
       </c>
       <c r="W52" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9982193174454408</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.8</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6464531833361252</v>
       </c>
     </row>
@@ -19790,9 +21312,15 @@
         <v>-8.695490563735527</v>
       </c>
       <c r="W53" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.6726504632278013</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.5134783926477238</v>
       </c>
     </row>
@@ -19866,9 +21394,15 @@
         <v>-5.042665491449092</v>
       </c>
       <c r="W54" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1283166369469676</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.2196815022578529</v>
       </c>
     </row>
@@ -19942,9 +21476,15 @@
         <v>-6.072995245148336</v>
       </c>
       <c r="W55" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.2723221213559264</v>
+      </c>
+      <c r="Y55" t="n">
         <v>6</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.1782221374365071</v>
       </c>
     </row>
@@ -20018,9 +21558,15 @@
         <v>-11.62954135705323</v>
       </c>
       <c r="W56" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.7205931236324917</v>
+      </c>
+      <c r="Y56" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7704071167997436</v>
       </c>
     </row>
@@ -20094,9 +21640,15 @@
         <v>-10.97489410161153</v>
       </c>
       <c r="W57" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0005671958320121653</v>
+      </c>
+      <c r="Y57" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>-2.710881044865768</v>
       </c>
     </row>
@@ -20170,9 +21722,15 @@
         <v>-7.649931222508005</v>
       </c>
       <c r="W58" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.2846731012182726</v>
+      </c>
+      <c r="Y58" t="n">
         <v>9.299999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>2.571785291860305</v>
       </c>
     </row>
@@ -20246,9 +21804,15 @@
         <v>3.848289842220325</v>
       </c>
       <c r="W59" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.5435230214744472</v>
+      </c>
+      <c r="Y59" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.5347003877652047</v>
       </c>
     </row>
@@ -20322,9 +21886,15 @@
         <v>0.5345421682616069</v>
       </c>
       <c r="W60" t="n">
+        <v>1.237907608695652</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4636636426805085</v>
+      </c>
+      <c r="Y60" t="n">
         <v>9.933333333333332</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2316557958757778</v>
       </c>
     </row>
@@ -20398,9 +21968,15 @@
         <v>-3.123068890896906</v>
       </c>
       <c r="W61" t="n">
+        <v>1.239027777777778</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-1.255515969506307</v>
+      </c>
+      <c r="Y61" t="n">
         <v>9.833333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.8695499033733426</v>
       </c>
     </row>
@@ -20474,9 +22050,15 @@
         <v>4.359164765355469</v>
       </c>
       <c r="W62" t="n">
+        <v>1.222005494505494</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-0.6587974436907932</v>
+      </c>
+      <c r="Y62" t="n">
         <v>9.633333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.611475437749445</v>
       </c>
     </row>
@@ -20550,9 +22132,15 @@
         <v>-9.274900403378052</v>
       </c>
       <c r="W63" t="n">
+        <v>1.142798913043478</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.7686274454731499</v>
+      </c>
+      <c r="Y63" t="n">
         <v>9.466666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.06005147843442264</v>
       </c>
     </row>
@@ -20626,9 +22214,15 @@
         <v>2.205358754478453</v>
       </c>
       <c r="W64" t="n">
+        <v>1.090942028985507</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-1.713837488051842</v>
+      </c>
+      <c r="Y64" t="n">
         <v>9.500000000000002</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.01929741172564835</v>
       </c>
     </row>
@@ -20702,9 +22296,15 @@
         <v>-0.1414527046832668</v>
       </c>
       <c r="W65" t="n">
+        <v>1.187194444444444</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.5523955381796765</v>
+      </c>
+      <c r="Y65" t="n">
         <v>9.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.2816030764617</v>
       </c>
     </row>
@@ -20778,9 +22378,15 @@
         <v>1.488191995197199</v>
       </c>
       <c r="W66" t="n">
+        <v>1.188012820512821</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.6160995966856758</v>
+      </c>
+      <c r="Y66" t="n">
         <v>9.066666666666668</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-1.37413092782624</v>
       </c>
     </row>
@@ -20854,9 +22460,15 @@
         <v>1.805948636116426</v>
       </c>
       <c r="W67" t="n">
+        <v>1.129936594202898</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.5312383146435701</v>
+      </c>
+      <c r="Y67" t="n">
         <v>9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1708104339709459</v>
       </c>
     </row>
@@ -20930,9 +22542,15 @@
         <v>2.601538182881132</v>
       </c>
       <c r="W68" t="n">
+        <v>1.051413043478261</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.480900461438375</v>
+      </c>
+      <c r="Y68" t="n">
         <v>8.633333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-1.49758907415862</v>
       </c>
     </row>
@@ -21006,9 +22624,15 @@
         <v>5.700259810984361</v>
       </c>
       <c r="W69" t="n">
+        <v>1.004789377289377</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-0.6043163623083506</v>
+      </c>
+      <c r="Y69" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.69651369965635</v>
       </c>
     </row>
@@ -21082,9 +22706,15 @@
         <v>1.243125510361928</v>
       </c>
       <c r="W70" t="n">
+        <v>0.9410897435897435</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-0.6051127647404734</v>
+      </c>
+      <c r="Y70" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1404853857859076</v>
       </c>
     </row>
@@ -21158,9 +22788,15 @@
         <v>3.388962659855582</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8922463768115942</v>
+      </c>
+      <c r="X71" t="n">
+        <v>-0.458529690729568</v>
+      </c>
+      <c r="Y71" t="n">
         <v>8.033333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.5416761710956025</v>
       </c>
     </row>
@@ -21234,9 +22870,15 @@
         <v>6.079223326420092</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8330344202898552</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.5436167718785301</v>
+      </c>
+      <c r="Y72" t="n">
         <v>7.8</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>2.200575517553142</v>
       </c>
     </row>
@@ -21310,9 +22952,15 @@
         <v>5.106807018762514</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8524166666666666</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-0.4500709771001628</v>
+      </c>
+      <c r="Y73" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-1.857736622032089</v>
       </c>
     </row>
@@ -21386,9 +23034,15 @@
         <v>4.45505319953063</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8818772893772894</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-0.3558668697555458</v>
+      </c>
+      <c r="Y74" t="n">
         <v>7.533333333333334</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.4292849461289096</v>
       </c>
     </row>
@@ -21462,9 +23116,15 @@
         <v>3.083624489029562</v>
       </c>
       <c r="W75" t="n">
+        <v>1.064528985507246</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.1052442046910613</v>
+      </c>
+      <c r="Y75" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.7846139255401161</v>
       </c>
     </row>
@@ -21538,9 +23198,15 @@
         <v>0.3029486817853025</v>
       </c>
       <c r="W76" t="n">
+        <v>1.084447463768116</v>
+      </c>
+      <c r="X76" t="n">
+        <v>-0.1737492996224259</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.933333333333334</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1694858444857924</v>
       </c>
     </row>
@@ -21614,9 +23280,15 @@
         <v>1.408328701681917</v>
       </c>
       <c r="W77" t="n">
+        <v>1.087777777777778</v>
+      </c>
+      <c r="X77" t="n">
+        <v>-0.3813196374404387</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.549550677116518</v>
       </c>
     </row>
@@ -21690,9 +23362,15 @@
         <v>3.388375990728056</v>
       </c>
       <c r="W78" t="n">
+        <v>1.052252747252747</v>
+      </c>
+      <c r="X78" t="n">
+        <v>-0.1115434667139886</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.2</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.049933222843982</v>
       </c>
     </row>
@@ -21766,9 +23444,15 @@
         <v>3.216993250859791</v>
       </c>
       <c r="W79" t="n">
+        <v>1.036884057971015</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.1092034865486679</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.066666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1708975181365698</v>
       </c>
     </row>
@@ -21842,9 +23526,15 @@
         <v>3.674493546137282</v>
       </c>
       <c r="W80" t="n">
+        <v>1.023007246376812</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.1105227869426536</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.012975200663767</v>
       </c>
     </row>
@@ -21918,9 +23608,15 @@
         <v>2.591556652629318</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9642777777777778</v>
+      </c>
+      <c r="X81" t="n">
+        <v>-0.3013571391980347</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.293423685768849</v>
       </c>
     </row>
@@ -21994,9 +23690,15 @@
         <v>2.967706301773021</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9544322344322343</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.4294736815605339</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.1832225112716888</v>
       </c>
     </row>
@@ -22070,9 +23772,15 @@
         <v>3.570837356708343</v>
       </c>
       <c r="W83" t="n">
+        <v>1.001304347826087</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.4786361736432003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.1465583126280143</v>
       </c>
     </row>
@@ -22146,9 +23854,15 @@
         <v>2.214535131670246</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9722282608695652</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.7005804365193786</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.2041466729368442</v>
       </c>
     </row>
@@ -22222,9 +23936,15 @@
         <v>3.866389983501776</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9108882783882782</v>
+      </c>
+      <c r="X85" t="n">
+        <v>-0.03080038960218154</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.1529241743295906</v>
       </c>
     </row>
@@ -22298,9 +24018,15 @@
         <v>0.7825699221433952</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8701648351648352</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.58780618604174</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.9</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3512593181539443</v>
       </c>
     </row>
@@ -22374,9 +24100,15 @@
         <v>0.820936650418127</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8362771739130437</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.8012221290725225</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.150736775528512</v>
       </c>
     </row>
@@ -22450,9 +24182,15 @@
         <v>2.838338660318382</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8446286231884059</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.5514785745439379</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5440147672289091</v>
       </c>
     </row>
@@ -22526,9 +24264,15 @@
         <v>3.553215503062373</v>
       </c>
       <c r="W89" t="n">
+        <v>0.902777777777778</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.5475576136130671</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.566666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.5599123023416485</v>
       </c>
     </row>
@@ -22602,9 +24346,15 @@
         <v>0.6771246909118293</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7823260073260079</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.7466772797919092</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.366666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.182603681591328</v>
       </c>
     </row>
@@ -22678,9 +24428,15 @@
         <v>0.6104679604021086</v>
       </c>
       <c r="W91" t="n">
+        <v>0.7365760869565222</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.8370957471934443</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.3</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.4866813859949767</v>
       </c>
     </row>
@@ -22754,9 +24510,15 @@
         <v>3.108640171881305</v>
       </c>
       <c r="W92" t="n">
+        <v>0.7121648550724642</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.7616564906511297</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6302779642709974</v>
       </c>
     </row>
@@ -22830,9 +24592,15 @@
         <v>0.8385309833341977</v>
       </c>
       <c r="W93" t="n">
+        <v>0.7215833333333328</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.3612070786971495</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4383706006800756</v>
       </c>
     </row>
@@ -22906,9 +24674,15 @@
         <v>0.7419240828341411</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7307692307692306</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.7947960213288179</v>
+      </c>
+      <c r="Y94" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.725654244081147</v>
       </c>
     </row>
@@ -22982,9 +24756,15 @@
         <v>-0.06854569992093716</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6967844202898559</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.9044461515540584</v>
+      </c>
+      <c r="Y95" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.2036050647505421</v>
       </c>
     </row>
@@ -23058,9 +24838,15 @@
         <v>-0.5777229189220903</v>
       </c>
       <c r="W96" t="n">
+        <v>0.6649728260869566</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5947307630604718</v>
+      </c>
+      <c r="Y96" t="n">
         <v>3.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.2186493976614562</v>
       </c>
     </row>
@@ -23134,9 +24920,15 @@
         <v>0.3704063749350713</v>
       </c>
       <c r="W97" t="n">
+        <v>0.555388888888888</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.2638217970103877</v>
+      </c>
+      <c r="Y97" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>1.981420049787539</v>
       </c>
     </row>
@@ -23210,9 +25002,15 @@
         <v>-0.3405805878994995</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4256593406593407</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.8089901828620003</v>
+      </c>
+      <c r="Y98" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.0276304779866033</v>
       </c>
     </row>
@@ -23286,9 +25084,15 @@
         <v>1.973333163680036</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3727898550724638</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.812643581690855</v>
+      </c>
+      <c r="Y99" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.1195472072743897</v>
       </c>
     </row>
@@ -23360,9 +25164,13 @@
         <v>2.080147018448573</v>
       </c>
       <c r="W100" t="n">
+        <v>0.4927536231884057</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3500133500317088</v>
       </c>
     </row>
@@ -23394,9 +25202,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-48.36923996534828</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23405,6 +25211,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23417,7 +25225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23533,10 +25341,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23612,9 +25430,15 @@
         <v>-2.624678796331396</v>
       </c>
       <c r="W2" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.442462199390804</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.3252334025838594</v>
       </c>
     </row>
@@ -23688,9 +25512,15 @@
         <v>4.04591287651782</v>
       </c>
       <c r="W3" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.576883913617963</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0920855831540509</v>
       </c>
     </row>
@@ -23764,9 +25594,15 @@
         <v>2.496809167036679</v>
       </c>
       <c r="W4" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9124234820257633</v>
+      </c>
+      <c r="Y4" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.352701556438597</v>
       </c>
     </row>
@@ -23840,9 +25676,15 @@
         <v>2.967672927588798</v>
       </c>
       <c r="W5" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.743220811679411</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.6316334282191225</v>
       </c>
     </row>
@@ -23916,9 +25758,15 @@
         <v>4.723561340933954</v>
       </c>
       <c r="W6" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.567000009466767</v>
+      </c>
+      <c r="Y6" t="n">
         <v>5.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5002696696877098</v>
       </c>
     </row>
@@ -23992,9 +25840,15 @@
         <v>0.8036266885600564</v>
       </c>
       <c r="W7" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.652432896110348</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.2909016793391079</v>
       </c>
     </row>
@@ -24068,9 +25922,15 @@
         <v>-0.6910721451132128</v>
       </c>
       <c r="W8" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.403017477151703</v>
+      </c>
+      <c r="Y8" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.1515404710328598</v>
       </c>
     </row>
@@ -24144,9 +26004,15 @@
         <v>0.9772275274890597</v>
       </c>
       <c r="W9" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.189601033430708</v>
+      </c>
+      <c r="Y9" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.682825505453847</v>
       </c>
     </row>
@@ -24220,9 +26086,15 @@
         <v>1.875776898790819</v>
       </c>
       <c r="W10" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.426762081980713</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.4148682118999314</v>
       </c>
     </row>
@@ -24296,9 +26168,15 @@
         <v>1.777134715082598</v>
       </c>
       <c r="W11" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.315623914253159</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.7127871952926002</v>
       </c>
     </row>
@@ -24372,9 +26250,15 @@
         <v>1.77903126145105</v>
       </c>
       <c r="W12" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.996656064319257</v>
+      </c>
+      <c r="Y12" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>1.44156517173449</v>
       </c>
     </row>
@@ -24448,9 +26332,15 @@
         <v>2.329595486325178</v>
       </c>
       <c r="W13" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.460998671536992</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>1.563528179884407</v>
       </c>
     </row>
@@ -24524,9 +26414,15 @@
         <v>4.089999657367341</v>
       </c>
       <c r="W14" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.043505788438658</v>
+      </c>
+      <c r="Y14" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9879820816995307</v>
       </c>
     </row>
@@ -24600,9 +26496,15 @@
         <v>3.867542856529099</v>
       </c>
       <c r="W15" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.953512138760803</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>1.240570135514182</v>
       </c>
     </row>
@@ -24676,9 +26578,15 @@
         <v>3.211357443595196</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.308722460504383</v>
+      </c>
+      <c r="Y16" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2948092600078908</v>
       </c>
     </row>
@@ -24752,9 +26660,15 @@
         <v>1.318553055357316</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.933984100271054</v>
+      </c>
+      <c r="Y17" t="n">
         <v>4.3</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>1.4318195796147</v>
       </c>
     </row>
@@ -24828,9 +26742,15 @@
         <v>2.62679268206101</v>
       </c>
       <c r="W18" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.306540521866749</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.04190665834383445</v>
       </c>
     </row>
@@ -24904,9 +26824,15 @@
         <v>1.588766482264856</v>
       </c>
       <c r="W19" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.749921282171195</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.5241670570684518</v>
       </c>
     </row>
@@ -24980,9 +26906,15 @@
         <v>1.52720179808819</v>
       </c>
       <c r="W20" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.8952047373113</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>1.47795907234076</v>
       </c>
     </row>
@@ -25056,9 +26988,15 @@
         <v>2.178889162368163</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.394145613889072</v>
+      </c>
+      <c r="Y21" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>2.792350405894643</v>
       </c>
     </row>
@@ -25132,9 +27070,15 @@
         <v>0.4882299141736686</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.468300665009695</v>
+      </c>
+      <c r="Y22" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.3413588553532632</v>
       </c>
     </row>
@@ -25208,9 +27152,15 @@
         <v>-0.7286874573873794</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.415871745601759</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>1.318925130968985</v>
       </c>
     </row>
@@ -25284,9 +27234,15 @@
         <v>0.9706814076159537</v>
       </c>
       <c r="W24" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.991407300590436</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.9</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.02646769569631464</v>
       </c>
     </row>
@@ -25360,9 +27316,15 @@
         <v>1.812934871433695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.74062321716035</v>
+      </c>
+      <c r="Y25" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>1.6146234609159</v>
       </c>
     </row>
@@ -25436,9 +27398,15 @@
         <v>2.836681146078564</v>
       </c>
       <c r="W26" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.228845379066891</v>
+      </c>
+      <c r="Y26" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.2781073857187699</v>
       </c>
     </row>
@@ -25512,9 +27480,15 @@
         <v>2.213638355730779</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.887484095298902</v>
+      </c>
+      <c r="Y27" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1744363512094126</v>
       </c>
     </row>
@@ -25588,9 +27562,15 @@
         <v>-0.07314434845644495</v>
       </c>
       <c r="W28" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.172449257773016</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.5743961937550476</v>
       </c>
     </row>
@@ -25664,9 +27644,15 @@
         <v>3.069828751783565</v>
       </c>
       <c r="W29" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.548903015693563</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.7</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.1832773858842064</v>
       </c>
     </row>
@@ -25740,9 +27726,15 @@
         <v>3.020212451592337</v>
       </c>
       <c r="W30" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.183990852238864</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.4526855905704575</v>
       </c>
     </row>
@@ -25816,9 +27808,15 @@
         <v>0.7244183293562949</v>
       </c>
       <c r="W31" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.390811886332644</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08042045070469227</v>
       </c>
     </row>
@@ -25892,9 +27890,15 @@
         <v>3.418046353481256</v>
       </c>
       <c r="W32" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.329632962395057</v>
+      </c>
+      <c r="Y32" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.308791093418787</v>
       </c>
     </row>
@@ -25968,9 +27972,15 @@
         <v>3.921818590539228</v>
       </c>
       <c r="W33" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.847503034810838</v>
+      </c>
+      <c r="Y33" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.118366098173313</v>
       </c>
     </row>
@@ -26044,9 +28054,15 @@
         <v>1.745113822835072</v>
       </c>
       <c r="W34" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.087993011267773</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.446947891063852</v>
       </c>
     </row>
@@ -26120,9 +28136,15 @@
         <v>6.286881240386522</v>
       </c>
       <c r="W35" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.710873685443899</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.9083127103508349</v>
       </c>
     </row>
@@ -26196,9 +28218,15 @@
         <v>4.699812795590855</v>
       </c>
       <c r="W36" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.043101363132522</v>
+      </c>
+      <c r="Y36" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.855234176368886</v>
       </c>
     </row>
@@ -26272,9 +28300,15 @@
         <v>3.324272631005157</v>
       </c>
       <c r="W37" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.499833535566298</v>
+      </c>
+      <c r="Y37" t="n">
         <v>5.7</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.9472757392612963</v>
       </c>
     </row>
@@ -26348,9 +28382,15 @@
         <v>5.101712934106711</v>
       </c>
       <c r="W38" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.742482374939836</v>
+      </c>
+      <c r="Y38" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.080911724090174</v>
       </c>
     </row>
@@ -26424,9 +28464,15 @@
         <v>2.714713245774376</v>
       </c>
       <c r="W39" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.276781593320341</v>
+      </c>
+      <c r="Y39" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>1.125126974624543</v>
       </c>
     </row>
@@ -26500,9 +28546,15 @@
         <v>2.927863002172873</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.278776603993926</v>
+      </c>
+      <c r="Y40" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.3223541646279399</v>
       </c>
     </row>
@@ -26576,9 +28628,15 @@
         <v>3.620061814651929</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.882497159683694</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.3</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.05640296111112747</v>
       </c>
     </row>
@@ -26652,9 +28710,15 @@
         <v>3.437893944053055</v>
       </c>
       <c r="W42" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.530222984986847</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.1369339143445938</v>
       </c>
     </row>
@@ -26728,9 +28792,15 @@
         <v>3.698468629421459</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.496324271156137</v>
+      </c>
+      <c r="Y43" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.3101918290464555</v>
       </c>
     </row>
@@ -26804,9 +28874,15 @@
         <v>1.655152551874679</v>
       </c>
       <c r="W44" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.980467734324524</v>
+      </c>
+      <c r="Y44" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>-0.1580431735184432</v>
       </c>
     </row>
@@ -26880,9 +28956,15 @@
         <v>0.6730790335391478</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.290446118732727</v>
+      </c>
+      <c r="Y45" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>1.29869584701994</v>
       </c>
     </row>
@@ -26956,9 +29038,15 @@
         <v>-4.202019788444873</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.269220885123967</v>
+      </c>
+      <c r="Y46" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.774487856569592</v>
       </c>
     </row>
@@ -27032,9 +29120,15 @@
         <v>-5.332144797353016</v>
       </c>
       <c r="W47" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.482909652814654</v>
+      </c>
+      <c r="Y47" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>-0.5795444236913434</v>
       </c>
     </row>
@@ -27108,9 +29202,15 @@
         <v>-4.050020692270467</v>
       </c>
       <c r="W48" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.55719787856293</v>
+      </c>
+      <c r="Y48" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>1.378494769887912</v>
       </c>
     </row>
@@ -27184,9 +29284,15 @@
         <v>-4.108399626138389</v>
       </c>
       <c r="W49" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.012500841064275</v>
+      </c>
+      <c r="Y49" t="n">
         <v>4.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>1.389412242449846</v>
       </c>
     </row>
@@ -27260,9 +29366,15 @@
         <v>-4.301546794406078</v>
       </c>
       <c r="W50" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.903419192928134</v>
+      </c>
+      <c r="Y50" t="n">
         <v>4.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.6662441135973718</v>
       </c>
     </row>
@@ -27336,9 +29448,15 @@
         <v>-6.550050879271517</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.745149506136197</v>
+      </c>
+      <c r="Y51" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>-0.01416963137326231</v>
       </c>
     </row>
@@ -27412,9 +29530,15 @@
         <v>-8.600100838622637</v>
       </c>
       <c r="W52" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9982193174454408</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.8</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.6464531833361252</v>
       </c>
     </row>
@@ -27488,9 +29612,15 @@
         <v>-8.695490563735527</v>
       </c>
       <c r="W53" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.6726504632278013</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.5134783926477238</v>
       </c>
     </row>
@@ -27564,9 +29694,15 @@
         <v>-5.042665491449092</v>
       </c>
       <c r="W54" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1283166369469676</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>-0.2196815022578529</v>
       </c>
     </row>
@@ -27640,9 +29776,15 @@
         <v>-6.072995245148336</v>
       </c>
       <c r="W55" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.2723221213559264</v>
+      </c>
+      <c r="Y55" t="n">
         <v>6</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.1782221374365071</v>
       </c>
     </row>
@@ -27716,9 +29858,15 @@
         <v>-11.62954135705323</v>
       </c>
       <c r="W56" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.7205931236324917</v>
+      </c>
+      <c r="Y56" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.7704071167997436</v>
       </c>
     </row>
@@ -27792,9 +29940,15 @@
         <v>-10.97489410161153</v>
       </c>
       <c r="W57" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0005671958320121653</v>
+      </c>
+      <c r="Y57" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>-2.710881044865768</v>
       </c>
     </row>
@@ -27868,9 +30022,15 @@
         <v>-7.649931222508005</v>
       </c>
       <c r="W58" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.2846731012182726</v>
+      </c>
+      <c r="Y58" t="n">
         <v>9.299999999999999</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>2.571785291860305</v>
       </c>
     </row>
@@ -27944,9 +30104,15 @@
         <v>3.848289842220325</v>
       </c>
       <c r="W59" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.5435230214744472</v>
+      </c>
+      <c r="Y59" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.5347003877652047</v>
       </c>
     </row>
@@ -28020,9 +30186,15 @@
         <v>0.5345421682616069</v>
       </c>
       <c r="W60" t="n">
+        <v>1.237907608695652</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4636636426805085</v>
+      </c>
+      <c r="Y60" t="n">
         <v>9.933333333333332</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.2316557958757778</v>
       </c>
     </row>
@@ -28096,9 +30268,15 @@
         <v>-3.123068890896906</v>
       </c>
       <c r="W61" t="n">
+        <v>1.239027777777778</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-1.255515969506307</v>
+      </c>
+      <c r="Y61" t="n">
         <v>9.833333333333334</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.8695499033733426</v>
       </c>
     </row>
@@ -28172,9 +30350,15 @@
         <v>4.359164765355469</v>
       </c>
       <c r="W62" t="n">
+        <v>1.222005494505494</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-0.6587974436907932</v>
+      </c>
+      <c r="Y62" t="n">
         <v>9.633333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.611475437749445</v>
       </c>
     </row>
@@ -28248,9 +30432,15 @@
         <v>-9.274900403378052</v>
       </c>
       <c r="W63" t="n">
+        <v>1.142798913043478</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.7686274454731499</v>
+      </c>
+      <c r="Y63" t="n">
         <v>9.466666666666667</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.06005147843442264</v>
       </c>
     </row>
@@ -28324,9 +30514,15 @@
         <v>2.205358754478453</v>
       </c>
       <c r="W64" t="n">
+        <v>1.090942028985507</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-1.713837488051842</v>
+      </c>
+      <c r="Y64" t="n">
         <v>9.500000000000002</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.01929741172564835</v>
       </c>
     </row>
@@ -28400,9 +30596,15 @@
         <v>-0.1414527046832668</v>
       </c>
       <c r="W65" t="n">
+        <v>1.187194444444444</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.5523955381796765</v>
+      </c>
+      <c r="Y65" t="n">
         <v>9.033333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.2816030764617</v>
       </c>
     </row>
@@ -28476,9 +30678,15 @@
         <v>1.488191995197199</v>
       </c>
       <c r="W66" t="n">
+        <v>1.188012820512821</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.6160995966856758</v>
+      </c>
+      <c r="Y66" t="n">
         <v>9.066666666666668</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>-1.37413092782624</v>
       </c>
     </row>
@@ -28552,9 +30760,15 @@
         <v>1.805948636116426</v>
       </c>
       <c r="W67" t="n">
+        <v>1.129936594202898</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.5312383146435701</v>
+      </c>
+      <c r="Y67" t="n">
         <v>9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1708104339709459</v>
       </c>
     </row>
@@ -28628,9 +30842,15 @@
         <v>2.601538182881132</v>
       </c>
       <c r="W68" t="n">
+        <v>1.051413043478261</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.480900461438375</v>
+      </c>
+      <c r="Y68" t="n">
         <v>8.633333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-1.49758907415862</v>
       </c>
     </row>
@@ -28704,9 +30924,15 @@
         <v>5.700259810984361</v>
       </c>
       <c r="W69" t="n">
+        <v>1.004789377289377</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-0.6043163623083506</v>
+      </c>
+      <c r="Y69" t="n">
         <v>8.266666666666667</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>1.69651369965635</v>
       </c>
     </row>
@@ -28780,9 +31006,15 @@
         <v>1.243125510361928</v>
       </c>
       <c r="W70" t="n">
+        <v>0.9410897435897435</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-0.6051127647404734</v>
+      </c>
+      <c r="Y70" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1404853857859076</v>
       </c>
     </row>
@@ -28856,9 +31088,15 @@
         <v>3.388962659855582</v>
       </c>
       <c r="W71" t="n">
+        <v>0.8922463768115942</v>
+      </c>
+      <c r="X71" t="n">
+        <v>-0.458529690729568</v>
+      </c>
+      <c r="Y71" t="n">
         <v>8.033333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>-0.5416761710956025</v>
       </c>
     </row>
@@ -28932,9 +31170,15 @@
         <v>6.079223326420092</v>
       </c>
       <c r="W72" t="n">
+        <v>0.8330344202898552</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.5436167718785301</v>
+      </c>
+      <c r="Y72" t="n">
         <v>7.8</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>2.200575517553142</v>
       </c>
     </row>
@@ -29008,9 +31252,15 @@
         <v>5.106807018762514</v>
       </c>
       <c r="W73" t="n">
+        <v>0.8524166666666666</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-0.4500709771001628</v>
+      </c>
+      <c r="Y73" t="n">
         <v>7.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-1.857736622032089</v>
       </c>
     </row>
@@ -29084,9 +31334,15 @@
         <v>4.45505319953063</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8818772893772894</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-0.3558668697555458</v>
+      </c>
+      <c r="Y74" t="n">
         <v>7.533333333333334</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.4292849461289096</v>
       </c>
     </row>
@@ -29160,9 +31416,15 @@
         <v>3.083624489029562</v>
       </c>
       <c r="W75" t="n">
+        <v>1.064528985507246</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.1052442046910613</v>
+      </c>
+      <c r="Y75" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.7846139255401161</v>
       </c>
     </row>
@@ -29236,9 +31498,15 @@
         <v>0.3029486817853025</v>
       </c>
       <c r="W76" t="n">
+        <v>1.084447463768116</v>
+      </c>
+      <c r="X76" t="n">
+        <v>-0.1737492996224259</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.933333333333334</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.1694858444857924</v>
       </c>
     </row>
@@ -29312,9 +31580,15 @@
         <v>1.408328701681917</v>
       </c>
       <c r="W77" t="n">
+        <v>1.087777777777778</v>
+      </c>
+      <c r="X77" t="n">
+        <v>-0.3813196374404387</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.549550677116518</v>
       </c>
     </row>
@@ -29388,9 +31662,15 @@
         <v>3.388375990728056</v>
       </c>
       <c r="W78" t="n">
+        <v>1.052252747252747</v>
+      </c>
+      <c r="X78" t="n">
+        <v>-0.1115434667139886</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.2</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.049933222843982</v>
       </c>
     </row>
@@ -29464,9 +31744,15 @@
         <v>3.216993250859791</v>
       </c>
       <c r="W79" t="n">
+        <v>1.036884057971015</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.1092034865486679</v>
+      </c>
+      <c r="Y79" t="n">
         <v>6.066666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.1708975181365698</v>
       </c>
     </row>
@@ -29540,9 +31826,15 @@
         <v>3.674493546137282</v>
       </c>
       <c r="W80" t="n">
+        <v>1.023007246376812</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.1105227869426536</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>1.012975200663767</v>
       </c>
     </row>
@@ -29616,9 +31908,15 @@
         <v>2.591556652629318</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9642777777777778</v>
+      </c>
+      <c r="X81" t="n">
+        <v>-0.3013571391980347</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.293423685768849</v>
       </c>
     </row>
@@ -29692,9 +31990,15 @@
         <v>2.967706301773021</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9544322344322343</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.4294736815605339</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.1832225112716888</v>
       </c>
     </row>
@@ -29768,9 +32072,15 @@
         <v>3.570837356708343</v>
       </c>
       <c r="W83" t="n">
+        <v>1.001304347826087</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.4786361736432003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.1465583126280143</v>
       </c>
     </row>
@@ -29844,9 +32154,15 @@
         <v>2.214535131670246</v>
       </c>
       <c r="W84" t="n">
+        <v>0.9722282608695652</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.7005804365193786</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.2041466729368442</v>
       </c>
     </row>
@@ -29920,9 +32236,15 @@
         <v>3.866389983501776</v>
       </c>
       <c r="W85" t="n">
+        <v>0.9108882783882782</v>
+      </c>
+      <c r="X85" t="n">
+        <v>-0.03080038960218154</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.1529241743295906</v>
       </c>
     </row>
@@ -29996,9 +32318,15 @@
         <v>0.7825699221433952</v>
       </c>
       <c r="W86" t="n">
+        <v>0.8701648351648352</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.58780618604174</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.9</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.3512593181539443</v>
       </c>
     </row>
@@ -30072,9 +32400,15 @@
         <v>0.820936650418127</v>
       </c>
       <c r="W87" t="n">
+        <v>0.8362771739130437</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.8012221290725225</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.150736775528512</v>
       </c>
     </row>
@@ -30148,9 +32482,15 @@
         <v>2.838338660318382</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8446286231884059</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.5514785745439379</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.5440147672289091</v>
       </c>
     </row>
@@ -30224,9 +32564,15 @@
         <v>3.553215503062373</v>
       </c>
       <c r="W89" t="n">
+        <v>0.902777777777778</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.5475576136130671</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.566666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>0.5599123023416485</v>
       </c>
     </row>
@@ -30300,9 +32646,15 @@
         <v>0.6771246909118293</v>
       </c>
       <c r="W90" t="n">
+        <v>0.7823260073260079</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.7466772797919092</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.366666666666667</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.182603681591328</v>
       </c>
     </row>
@@ -30376,9 +32728,15 @@
         <v>0.6104679604021086</v>
       </c>
       <c r="W91" t="n">
+        <v>0.7365760869565222</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.8370957471934443</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.3</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.4866813859949767</v>
       </c>
     </row>
@@ -30452,9 +32810,15 @@
         <v>3.108640171881305</v>
       </c>
       <c r="W92" t="n">
+        <v>0.7121648550724642</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.7616564906511297</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.6302779642709974</v>
       </c>
     </row>
@@ -30528,9 +32892,15 @@
         <v>0.8385309833341977</v>
       </c>
       <c r="W93" t="n">
+        <v>0.7215833333333328</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.3612070786971495</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.4383706006800756</v>
       </c>
     </row>
@@ -30604,9 +32974,15 @@
         <v>0.7419240828341411</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7307692307692306</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.7947960213288179</v>
+      </c>
+      <c r="Y94" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.725654244081147</v>
       </c>
     </row>
@@ -30680,9 +33056,15 @@
         <v>-0.06854569992093716</v>
       </c>
       <c r="W95" t="n">
+        <v>0.6967844202898559</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.9044461515540584</v>
+      </c>
+      <c r="Y95" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.2036050647505421</v>
       </c>
     </row>
@@ -30756,9 +33138,15 @@
         <v>-0.5777229189220903</v>
       </c>
       <c r="W96" t="n">
+        <v>0.6649728260869566</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5947307630604718</v>
+      </c>
+      <c r="Y96" t="n">
         <v>3.8</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.2186493976614562</v>
       </c>
     </row>
@@ -30832,9 +33220,15 @@
         <v>0.3704063749350713</v>
       </c>
       <c r="W97" t="n">
+        <v>0.555388888888888</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.2638217970103877</v>
+      </c>
+      <c r="Y97" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>1.981420049787539</v>
       </c>
     </row>
@@ -30908,9 +33302,15 @@
         <v>-0.3405805878994995</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4256593406593407</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.8089901828620003</v>
+      </c>
+      <c r="Y98" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.0276304779866033</v>
       </c>
     </row>
@@ -30984,9 +33384,15 @@
         <v>1.973333163680036</v>
       </c>
       <c r="W99" t="n">
+        <v>0.3727898550724638</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.812643581690855</v>
+      </c>
+      <c r="Y99" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.1195472072743897</v>
       </c>
     </row>
@@ -31058,9 +33464,13 @@
         <v>2.080147018448573</v>
       </c>
       <c r="W100" t="n">
+        <v>0.4927536231884057</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.3500133500317088</v>
       </c>
     </row>
@@ -31100,9 +33510,7 @@
       <c r="O101" t="n">
         <v>986.7850670182675</v>
       </c>
-      <c r="P101" t="n">
-        <v>-48.36923996534828</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -31115,6 +33523,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20200211.xlsx
+++ b/data/vintage_data/data_20200211.xlsx
@@ -16911,7 +16911,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>3.557</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33523,7 +33525,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>3.557</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
